--- a/entregables/partemanual.xlsx
+++ b/entregables/partemanual.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Codigo\LFP-Proyecto2-202209714\entregables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A0EFC3-9083-4020-B1B2-A01CB3B49CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABF41B1-6892-4A95-9F4E-1F5C8C1F8740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{63A44D24-DFF6-41AD-B756-B8AA5C31C7E7}"/>
   </bookViews>
   <sheets>
     <sheet name="tablas" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
+    <sheet name="Traducciones" sheetId="2" r:id="rId2"/>
+    <sheet name="Gramatica Libre de contexto" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="81">
   <si>
     <t>no</t>
   </si>
@@ -259,14 +260,43 @@
   </si>
   <si>
     <t>Traducciones</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>valor</t>
+  </si>
+  <si>
+    <t>esperado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -321,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -347,6 +377,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,7 +715,7 @@
   <dimension ref="B2:L18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1147,7 +1178,7 @@
   <dimension ref="B2:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1360,4 +1391,56 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD1ADB3-F19D-429F-B92F-8634BF4AEDE0}">
+  <dimension ref="B3:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>